--- a/2025-03-03_o3-mini_feedback_sheets/overall_gen/Food impaction_gen_overall.xlsx
+++ b/2025-03-03_o3-mini_feedback_sheets/overall_gen/Food impaction_gen_overall.xlsx
@@ -462,110 +462,110 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Patient reports a sudden sensation of food becoming lodged in the esophagus during a meal.</t>
+          <t>Sudden onset of a sensation of food stuck in the throat or chest during a meal.</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>A sudden onset of a food impaction event strongly supports the diagnosis as it is typical for episodes where food gets stuck due to an obstructive lesion.</t>
+          <t>The abrupt occurrence of a choking sensation during eating is highly specific to food impaction, distinguishing it from chronic dysphagia where onset is gradual.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Gradual progression of dysphagia over weeks with both solids and liquids.</t>
+          <t>Gradual onset of swallowing difficulties over several months.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>A gradual progression affecting both solids and liquids is more suggestive of motility disorders or inflammation rather than an acute food impaction event.</t>
+          <t>A gradual progression of dysphagia is more indicative of chronic esophageal conditions rather than an acute food impaction event.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>History of difficulty swallowing solid foods without gradual progression.</t>
+          <t>Inability to swallow a bolus of food after a meal.</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Acute dysphagia for solids without prior gradual worsening increases specificity for an obstructive or impaction event rather than a motility disorder.</t>
+          <t>The inability to clear the bolus of food from the esophagus is a classic presentation of food impaction, supporting the diagnosis.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Presence of significant odynophagia (painful swallowing) without a clear episode of food blockage.</t>
+          <t>Presence of weight loss over time.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Odynophagia is more characteristic of inflammatory esophageal conditions (such as esophagitis) rather than a mechanical obstruction from food impaction.</t>
+          <t>Weight loss is typically associated with chronic conditions such as esophageal cancer or strictures rather than an acute episode of food impaction.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Experience of regurgitating undigested food shortly after eating.</t>
+          <t>Associated regurgitation of undigested food.</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Regurgitation of undigested food is more typical when there is an obstruction causing food impaction.</t>
+          <t>Regurgitating undigested food points to an obstruction in the esophagus, a common feature in food impaction cases.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>History of weight loss and systemic symptoms accompanying swallowing difficulties.</t>
+          <t>Improvement in swallowing after adjusting food consistency (e.g., liquids or soft foods being tolerated).</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Systemic symptoms and weight loss may indicate a chronic process such as cancer or advanced motility disorder rather than a discrete episode of food impaction.</t>
+          <t>Tolerance of softer foods suggests a functional swallowing mechanism, arguing against a fixed mechanical obstruction from impaction.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Patient describes relief after maneuvers, such as drinking water, that moved the food.</t>
+          <t>Episodes occurring in the context of rapid or large bites of food.</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>The ability to temporarily relieve the blockage through specific actions is common in food impaction scenarios, thereby increasing the relative LR for the diagnosis.</t>
+          <t>Rapid consumption or large bites increases the likelihood of food becoming impacted, hence supporting the diagnosis.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Intermittent symptoms that resolve spontaneously without intervention.</t>
+          <t>Reports of chest pain or heartburn without a concurrent sensation of food being stuck.</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Transient swallowing issues that resolve on their own are less likely to represent a true impaction, which typically requires active resolution.</t>
+          <t>Chest pain or heartburn without a clear feeling of impaction points to other esophageal issues like reflux rather than a physical food bolus block.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Acute onset of retrosternal discomfort associated with the episode of food sticking.</t>
+          <t>History or mention of underlying esophageal disorders such as eosinophilic esophagitis or strictures before the event.</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Retrosternal discomfort, when correlated with a food impaction event, provides strong evidence supporting the diagnosis because it is a typical symptom when food is obstructing the esophageal lumen.</t>
+          <t>Preexisting esophageal pathology predisposes individuals to food impaction, making this historical detail highly significant.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Symptoms provoked by specific dietary triggers known to cause reflux rather than impaction.</t>
+          <t>A history of neurologic symptoms causing dysphagia rather than a mechanical obstruction.</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>If symptoms correlate with reflux or dietary irritants rather than a physical blockage, it decreases the likelihood of food impaction as the primary issue.</t>
+          <t>Neurologic dysphagia, which may improve with specific maneuvers or vary with time, suggests an alternative etiology to food impaction.</t>
         </is>
       </c>
     </row>
@@ -618,105 +618,105 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>This condition is associated with inflammation and remodeling of the esophagus, which predisposes patients to developing strictures and subsequent food impaction.</t>
+          <t>Eosinophilic esophagitis is strongly associated with food impaction due to esophageal inflammation and remodeling, making this a high specificity indicator.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Chronic use of proton pump inhibitors (PPI)</t>
+          <t>Absence of any history of esophageal structural disorders</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Long-term PPI therapy may reduce inflammation and the risk of esophageal stricture formation, thereby lowering the risk of food impaction.</t>
+          <t>No documented history of esophageal conditions such as strictures or eosinophilic esophagitis reduces the likelihood of food impaction.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Past diagnosis of esophageal stricture</t>
+          <t>Prior episodes of food impaction</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Strictures narrow the esophageal lumen, making it more likely for food to become impacted.</t>
+          <t>A documented past episode of food impaction increases the likelihood of recurrence, serving as a strong predictive historical indicator.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>History of uncomplicated gastroesophageal reflux disease (GERD) without complications</t>
+          <t>History of gastroesophageal reflux disease managed effectively with proton pump inhibitors</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>GERD without complications indicates a lower likelihood of esophageal remodeling or stricture formation leading to food impaction.</t>
+          <t>Well-managed GERD without progression to complications like strictures indicates a lower risk of developing food impaction.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>History of prior esophageal dilation procedures</t>
+          <t>History of esophageal strictures</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Such procedures indicate a history of narrowed or dysmotile esophagus that required intervention, supporting a susceptibility to food impaction.</t>
+          <t>Esophageal strictures cause narrowing of the lumen, which predisposes to food impaction by obstructing the passage of food, thereby supporting the diagnosis.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>No previous episodes of food impaction</t>
+          <t>No prior episodes of food impaction</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>The absence of a history of food impaction reduces the probability of an underlying esophageal abnormality that predisposes to impaction.</t>
+          <t>The absence of previous food impaction events suggests a lesser predisposition towards recurring incidents, thus arguing against the diagnosis.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Recurrent episodes of food impaction in the past</t>
+          <t>Past surgical intervention for esophageal dilation</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>A documented history of food impaction significantly increases the likelihood of future similar events.</t>
+          <t>Having undergone procedures like esophageal dilation suggests previously identified structural abnormalities, which are highly associated with subsequent food impaction events.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Past surgical history showing no interventions for esophageal narrowing (e.g., esophageal dilation or antireflux surgery)</t>
+          <t>Lack of history of esophageal dilation procedures</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Lack of previous esophageal interventions suggests that the esophagus has likely maintained normal anatomy with a reduced risk of impaction.</t>
+          <t>Not having undergone procedures that correct esophageal narrowing implies that no significant structural abnormality had been identified, decreasing the likelihood of food impaction.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Long-standing gastroesophageal reflux disease (GERD) with complications</t>
+          <t>History of medications that impair esophageal motility (e.g., certain calcium channel blockers)</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Chronic GERD can lead to inflammatory changes and scarring that predispose to strictures and food impaction.</t>
+          <t>Medications known to reduce esophageal contractility can precipitate dysmotility and lead to food impaction, providing strong supportive evidence.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>No recorded history of esophageal dysmotility disorders</t>
+          <t>No history of taking medications known to impair esophageal motility</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Absence of conditions that impair normal esophageal motility suggests a lower risk for food stasis and subsequent impaction.</t>
+          <t>The absence of medications that can negatively affect esophageal muscle function reduces the risk for impaired motility and subsequent food impaction.</t>
         </is>
       </c>
     </row>
@@ -764,110 +764,110 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Family history of atopic conditions including eosinophilic esophagitis, asthma, or allergies.</t>
+          <t>Positive family history of atopic disorders, such as asthma or eczema, which are associated with eosinophilic esophagitis, a common cause of food impaction.</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>A family history of atopy increases the likelihood that a patient may have associated conditions such as eosinophilic esophagitis, which is a well-known cause of food impaction due to esophageal narrowing.</t>
+          <t>A family history of atopic conditions can increase the risk of eosinophilic esophagitis, which predisposes patients to food impaction.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Absence of family history of atopic diseases or eosinophilic esophagitis.</t>
+          <t>Absence of family history of esophageal disorders or atopic diseases.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Lack of a familial predisposition reduces the likelihood that the patient has an inherited atopic tendency that predisposes to food impaction.</t>
+          <t>Without a genetic predisposition, the risk associated with conditions like eosinophilic esophagitis is lower, making food impaction less likely.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Personal history of atopic disorders such as allergic rhinitis, asthma, or eczema.</t>
+          <t>Personal history of multiple atopic conditions (if social history reveals that similar allergic diseases run in the family).</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Atopic conditions are commonly seen in patients with eosinophilic esophagitis, thereby providing strong supportive social history evidence for food impaction.</t>
+          <t>A personal predisposition influenced by familial atopy supports the possibility of eosinophilic esophagitis leading to food impaction.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>No personal history of allergic conditions such as allergic rhinitis, asthma, or eczema.</t>
+          <t>Regularly practiced mindful eating behaviors and taking time to chew food thoroughly as part of the patient’s social habits.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Without a history of atopic disorders, the connective link to eosinophilic esophagitis and its food impaction manifestation is diminished.</t>
+          <t>Mindful eating reduces the risk of improperly chewed food boluses, lowering the likelihood of food impaction.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Patient follows an elimination diet or has known food allergies.</t>
+          <t>Cultural or social food eating practices favoring large boluses of food or rapid eating without thorough mastication.</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>A history of food allergies or adherence to an elimination diet suggests an allergic component, which correlates well with eosinophilic esophagitis and subsequent food impaction.</t>
+          <t>Practices that lead to swallowing larger poorly chewed food particles can predispose to impaction in an already narrowed esophagus.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Social history indicating a consistent diet of predominantly soft foods.</t>
+          <t>Engagement in structured meal times and healthy eating routines that discourage rushed eating.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>A diet that focuses on soft foods reduces the mechanical risk of food becoming impacted in the esophagus, serving as strong evidence against the diagnosis.</t>
+          <t>A social lifestyle with planned, unhurried meals reduces the risk of swallowing large pieces of food that could get impacted.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Cultural or familial dietary patterns that include frequent consumption of coarse or poorly chewed foods.</t>
+          <t>Dietary patterns that include a high intake of meat or other fibrous foods known to commonly cause bolus impaction.</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Certain dietary habits that involve foods predisposed to impaction (like tough meats) may increase the risk of food impaction in susceptible individuals.</t>
+          <t>Certain diets are known to be riskier for food impaction due to the physical characteristics of the food leading to bolus formation.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>No reported issues with food allergies or need for elimination diets.</t>
+          <t>Strong dental hygiene practices and routine dental check-ups noted in social history.</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>The absence of food allergy history decreases the suspicion for eosinophilic esophagitis, lowering the likelihood of food impaction.</t>
+          <t>Good dental health and regular dental care are associated with adequate mastication, reducing the risk for food impaction.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Personal awareness of a history of dysphagia associated with allergen exposure in family discussions.</t>
+          <t>Social stressors or work environments that promote hurried meals, possibly leading to inadequate chewing.</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Patients with a family background discussing dysphagia or related allergic conditions may have increased vigilance, reflecting a social history that supports the presence of food impaction.</t>
+          <t>Rapid eating in stressful social or work settings might contribute to swallowing insufficiently masticated food, increasing impaction risk.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>A lifestyle incorporating meticulous eating habits, including thorough chewing and mindful eating.</t>
+          <t>The absence of high-risk dietary preferences, such as a diet low in fibrous and well-masticated foods.</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Such behaviors significantly reduce the risk of large or inadequately chewed food boluses, making food impaction less likely.</t>
+          <t>A diet characterized by softer, well-chewed foods decreases the likelihood of esophageal food impaction.</t>
         </is>
       </c>
     </row>
@@ -915,110 +915,110 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Excessive drooling observed on physical exam</t>
+          <t>Excessive drooling on physical exam</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Patients with food impaction often cannot swallow saliva, leading to drooling, which is a specific sign of esophageal obstruction.</t>
+          <t>Patients with food impaction often are unable to swallow saliva, making drooling a highly specific objective sign that supports the diagnosis.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Normal saliva production with no drooling</t>
+          <t>Normal oropharyngeal exam</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>The absence of drooling suggests that the patient is managing oral secretions well, making true esophageal obstruction less likely.</t>
+          <t>A normal exam without signs of secretions pooling or structural abnormality strongly argues against the presence of a food impaction.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Visible discomfort and agitation</t>
+          <t>Visible pooling of saliva in the oropharynx</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Acute distress and irritability on exam may indicate the patient is experiencing painful obstruction from food impaction.</t>
+          <t>This finding indicates that secretions are not being properly swallowed, which is common in food impaction.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Absence of neck or chest tenderness on examination</t>
+          <t>Absence of drooling</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Lack of tenderness reduces the likelihood of local inflammation or irritation due to food impaction.</t>
+          <t>Without drooling or accumulation of saliva, it is less likely that a significant obstruction, such as food impaction, is present.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Neck tenderness on palpation</t>
+          <t>Muffled or dysphonic voice</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Tenderness in the cervical region can suggest inflammation or irritation from an impacted bolus in the cervical esophagus.</t>
+          <t>Alterations in voice can result from an obstruction in the esophagus interfering with normal swallow mechanics.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Stable vital signs including normal heart rate and respiratory rate</t>
+          <t>Normal respiratory exam with clear breath sounds</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Normal vital measurements imply that there is no acute distress or systemic response that would be expected in a significant impaction event.</t>
+          <t>A clear respiratory exam indicating no stridor or abnormal lung sounds suggests that a large obstructive mass is unlikely.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Altered voice or hoarseness</t>
+          <t>Stridor or abnormal airway sounds on auscultation</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Impacted food in the esophagus may irritate surrounding tissues and alter the voice, serving as a supportive physical finding.</t>
+          <t>If the impacted food is large enough or positioned proximally, it can compromise the airway, making stridor a highly specific sign in favor of food impaction.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>No changes in voice quality or presence of hoarseness</t>
+          <t>Lack of neck tenderness upon palpation</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>A normal voice implies that there is no significant irritation of the laryngeal area, which would otherwise be seen in cases of impaction affecting surrounding tissue.</t>
+          <t>The absence of tenderness reduces the likelihood of local irritation from an impacted food bolus.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Increased respiratory rate and mild tachycardia</t>
+          <t>Palpable tenderness in the neck region</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>In response to distress or slight airway compromise, patients might exhibit increased respiratory rate and heart rate, which, while nonspecific, can support food impaction in the clinical setting.</t>
+          <t>Tenderness on palpation of the neck, specifically in the prevertebral area, may indicate local irritation from an impacted bolus.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Calm demeanor and absence of overt distress on physical exam</t>
+          <t>Stable vital signs with no signs of distress</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>A relaxed patient with no signs of discomfort makes the acute event of a food impaction less likely, as these events typically cause significant distress.</t>
+          <t>Patients with food impaction may exhibit signs of distress or altered vitals; a stable exam reduces the likelihood of an acute impaction event.</t>
         </is>
       </c>
     </row>
@@ -1066,110 +1066,110 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Endoscopic visualization of a food bolus stuck in the esophagus</t>
+          <t>Direct endoscopic visualization of a food bolus retained in the esophagus during esophagogastroduodenoscopy (EGD)</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Direct visualization of a lodged food bolus is a highly specific test result that confirms the presence of impaction.</t>
+          <t>This test demonstrates the actual presence of impacted food, which is highly specific for food impaction when visualized.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Normal endoscopy with no evidence of residual food bolus or mucosal injury</t>
+          <t>Normal endoscopic examination with complete clearance of the esophagus</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>A normal endoscopic examination strongly argues against food impaction, especially when the test used is highly sensitive for detecting intraluminal obstructions.</t>
+          <t>The absence of retained food on endoscopy serves as strong evidence against food impaction, given the high sensitivity of endoscopy for detecting retained material.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Barium swallow study showing an intraluminal filling defect consistent with food material</t>
+          <t>Barium swallow study showing an abrupt cutoff with pooling of contrast material at a specific esophageal level</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>This imaging test can reveal a sharply defined defect within the esophageal lumen, supporting the diagnosis by its high specificity.</t>
+          <t>The study indicates a mechanical obstruction typically due to impacted food; high specificity is seen in such radiographic findings.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Unremarkable barium swallow study showing smooth, continuous passage of contrast</t>
+          <t>Unremarkable barium swallow study showing smooth passage of contrast throughout the esophagus</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>A normal barium swallow without any filling defects is strong evidence against the presence of a food impaction, given the high specificity of this test when normal.</t>
+          <t>A normal barium swallow that shows no hold-up of contrast indicates there is no mechanical obstruction, arguing against a diagnosis of food impaction.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Computed Tomography (CT) scan demonstrating a hyperdense mass in the esophagus</t>
+          <t>Endoscopic evidence of esophageal narrowing or stricture with concomitant food retention</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>CT imaging that identifies a mass corresponding to food impaction provides strong objective evidence due to its visualization of the affected area.</t>
+          <t>The presence of an esophageal stricture can predispose to food impaction, and when combined with retained food on visualization, it strongly supports the diagnosis.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>CT scan of the chest and neck revealing no intraluminal obstruction or hyperdense mass</t>
+          <t>Normal esophageal manometry results demonstrating adequate peristalsis and sphincter function</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>A negative CT scan indicates the absence of any obstructive lesion such as a food bolus, making it strong evidence against food impaction.</t>
+          <t>These results negate the presence of esophageal motility disorders that could predispose to food impaction, providing evidence against its occurrence.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Endoscopic evidence of mucosal injury with a lodged food bolus</t>
+          <t>Endoscopic biopsy demonstrating eosinophilic infiltration in the esophageal mucosa</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>The presence of mucosal injury along with a food bolus on endoscopy suggests an acute impaction that has already caused local damage, lending specificity to the diagnosis.</t>
+          <t>Eosinophilic esophagitis is a common cause of food impaction; positive biopsy findings are specific for the condition underlying the impaction.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Normal esophageal motility study indicating no functional obstruction</t>
+          <t>CT imaging without any evidence of extrinsic compression or intraluminal obstruction</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>A normal motility study suggests that there are no obstructions or impairments in the esophageal clearance process, which argues against the diagnosis of food impaction.</t>
+          <t>A normal CT scan that does not demonstrate an obstructive mass or structural pathology argues against the presence of a food impaction.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Radiographic esophagram showing delayed clearance and retention of contrast material at the site of impaction</t>
+          <t>Fluoroscopic imaging during a dynamic swallow study showing a transient hold-up of contrast at a narrow segment</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Delayed clearance on an esophagram signifies an obstruction from food impaction, providing both high sensitivity and specificity in the right clinical context.</t>
+          <t>This finding, particularly when observed in real time, indicates a localized obstruction consistent with food impaction.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Repeat endoscopy after symptom resolution showing a clear esophageal lumen</t>
+          <t>Lack of eosinophilic infiltration on esophageal biopsy</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>The absence of any residual signs of food impaction on repeat endoscopy after resolution strongly supports that prior symptoms were not due to an impaction.</t>
+          <t>Normal biopsy results reduce the likelihood of eosinophilic esophagitis, which is a common underlying cause of food impaction, thereby arguing against its diagnosis.</t>
         </is>
       </c>
     </row>
